--- a/medicine/Pharmacie/Flouve_odorante/Flouve_odorante.xlsx
+++ b/medicine/Pharmacie/Flouve_odorante/Flouve_odorante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthoxanthum odoratum
 Anthoxanthum odoratum, la flouve odorante, est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire des régions tempérées de l'Ancien Monde (Eurasie, Afrique du Nord).
-Ce sont des plantes herbacées vivaces de hauteur moyenne, aux tiges dressées et aux inflorescences en panicules contractées[2].
+Ce sont des plantes herbacées vivaces de hauteur moyenne, aux tiges dressées et aux inflorescences en panicules contractées.
 Parfois cultivée comme plante fourragère, la flouve odorante communique au foin une odeur agréable due à la présence de coumarine.
 Largement répandue en dehors de son aire d'origine, l'espèce se comporte comme une mauvaise herbe envahissante dans certaines régions, d'Australie et d'Amérique du Nord notamment. 
 </t>
@@ -515,10 +527,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom scientifique provient du grec anthos (« fleur ») et xanthos (« jaune »), par allusion à ses fleurs jaunes après la floraison. Les termes « odoratum » et « odorant » font référence à son odeur de coumarine après dessiccation.
-Cette plante porte différents noms vernaculaires : chiendent-odorant, flouve odorante, foin-dur, foin d'odeur[3].
+Cette plante porte différents noms vernaculaires : chiendent-odorant, flouve odorante, foin-dur, foin d'odeur.
 </t>
         </is>
       </c>
@@ -549,18 +563,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères biologiques
-Plante vivace cespiteuse (modules qui semblent soudés entre eux, les entre-nœuds très courts de la tige faisant qu'ils se touchent) de 15 à 60 cm, rarement jusqu'à 80 cm. Cette graminée a la capacité de coloniser l'espace à grande distance par reproduction sexuée et pollinisation anémophile mais aussi à courte distance par reproduction asexuée ou clonale. Une des formes de croissance clonale existante est le développement latéral via des tiges modifiées (stolons ou rhizomes). Cette croissance se fait de manière lente par un réseau très agrégé de modules (stratégie « phalange » avec occupation durable des sites colonisés)[4]
-La coumarine est un métabolite secondaire de cette plante, la Flouve synthétisant ce composé toxique qui  participe à sa défense chimique contre les herbivores. Il correspond à des rhizodépôts allélochimiques aux effets phytotoxiques (inhibition du développement d'autres espèces végétales de la rhizosphère). La concentration en coumarine est si élevée dans les racines que l'odeur de cette substance (agréable à basse concentration) se transforme en une repoussante odeur d'écurie[5].
-On a signalé des cas d'intoxication de bovins à la suite d'ingestion d'ensilage ou de foin contenant de la flouve odorante, mal conservés et contenant de ce fait du dicoumarol[6].
-Identification rapide
-Plante cespiteuse et odorante lorsqu'elle est sèche
+          <t>Caractères biologiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace cespiteuse (modules qui semblent soudés entre eux, les entre-nœuds très courts de la tige faisant qu'ils se touchent) de 15 à 60 cm, rarement jusqu'à 80 cm. Cette graminée a la capacité de coloniser l'espace à grande distance par reproduction sexuée et pollinisation anémophile mais aussi à courte distance par reproduction asexuée ou clonale. Une des formes de croissance clonale existante est le développement latéral via des tiges modifiées (stolons ou rhizomes). Cette croissance se fait de manière lente par un réseau très agrégé de modules (stratégie « phalange » avec occupation durable des sites colonisés)
+La coumarine est un métabolite secondaire de cette plante, la Flouve synthétisant ce composé toxique qui  participe à sa défense chimique contre les herbivores. Il correspond à des rhizodépôts allélochimiques aux effets phytotoxiques (inhibition du développement d'autres espèces végétales de la rhizosphère). La concentration en coumarine est si élevée dans les racines que l'odeur de cette substance (agréable à basse concentration) se transforme en une repoussante odeur d'écurie.
+On a signalé des cas d'intoxication de bovins à la suite d'ingestion d'ensilage ou de foin contenant de la flouve odorante, mal conservés et contenant de ce fait du dicoumarol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Identification rapide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plante cespiteuse et odorante lorsqu'elle est sèche
 Épi dense et allongé
 Feuille caulinaire courte ciliée au sommet de la gaine
 Ligule est oblongue et assez souvent déchirée
-Fleur verdâtre et jaune en fin de floraison .
-Identification poussée
-Plante glabre ou velue, légèrement odorante et cespiteuse
+Fleur verdâtre et jaune en fin de floraison .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identification poussée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante glabre ou velue, légèrement odorante et cespiteuse
 Tige simple, dressée ou genouillée à la base, portant deux à quatre nœuds renforcés par des fibres, d'où naissent les feuilles
 Feuilles larges de 2 à 6 mm, longues de 2 à 10 cm en moyenne, ciliée au sommet de la gaine ; dernière feuille caulinaire très courte
 Ligule oblongue, assez souvent déchirée
@@ -572,35 +660,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Flouve_odorante</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Flouve_odorante</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Anthoxanthum odoratum a été décrite par Linné et publiée en 1753 dans son Species plantarum 1: 28. 1753[7].
-Synonymes
-Selon Catalogue of Life                                   (9 mars 2018)[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Anthoxanthum odoratum a été décrite par Linné et publiée en 1753 dans son Species plantarum 1: 28. 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 mars 2018) :
 Anthoxanthum asperum W.Mann ex Opiz, nom. nud.
 Anthoxanthum maderense H.Teppner
 Anthoxanthum nebrodense Lojac.
@@ -629,8 +754,43 @@
 Anthoxanthum villosum (Loisel.) Tinant
 Phalaris ciliata Pourr.
 Xanthonanthos odoratus (L.) St.-Lag.
-Liste des sous-espèces
-Selon The Plant List            (9 mars 2018)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flouve_odorante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (9 mars 2018) :
 Anthoxanthum odoratum subsp. furumii (Honda) T.Koyama
 Anthoxanthum odoratum subsp. nipponicum (Honda) Tzvelev</t>
         </is>
